--- a/biology/Médecine/Bottier_orthopédiste/Bottier_orthopédiste.xlsx
+++ b/biology/Médecine/Bottier_orthopédiste/Bottier_orthopédiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bottier_orthop%C3%A9diste</t>
+          <t>Bottier_orthopédiste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bottier orthopédiste est un artisan qui confectionne, répare et entretient les chaussures orthopédiques ou les accessoires en rapport avec celles-ci qui aident à faire face aux difficultés de la marche.
 La démarche professionnelle de cet artisan consiste donc en premier lieu à analyser et à saisir la signification des termes de la prescription médicale. Ensuite, il doit examiner le patient pour comprendre sa pathologie afin de corriger au mieux ses problèmes orthopédiques. Vient ensuite la prise de mesures, la prises d'empreintes ou le moulage pour la réalisation de la forme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bottier_orthop%C3%A9diste</t>
+          <t>Bottier_orthopédiste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Formation au métier Podo-Orthésiste
-Le métier fait en France l'objet d'une certification meilleur ouvrier de France[1].</t>
+Le métier fait en France l'objet d'une certification meilleur ouvrier de France.</t>
         </is>
       </c>
     </row>
